--- a/biology/Botanique/Haemanthus/Haemanthus.xlsx
+++ b/biology/Botanique/Haemanthus/Haemanthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Haemanthus est un genre de plantes à fleurs monocotylédones de la famille des Amaryllidaceae et de la sous-famille des Amaryllidoideae, qui comprend 22 espèces connues, originaires d'Afrique du Sud, du Botswana, de la Namibie, du Lesotho et du Swaziland. Ce genre est très proche dans la tribu Haemantheae  du genre Scadoxus.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (8 juillet 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (8 juillet 2017) :
 Haemanthus albiflos Jacq. (1797)
 Haemanthus amarylloides Jacq. (1804)
 Haemanthus avasmontanus Dinter (1923)
